--- a/data/financial_statements/sofp/ES.xlsx
+++ b/data/financial_statements/sofp/ES.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -137,9 +254,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -192,12 +306,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -502,144 +613,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>486000000</v>
+        <v>485716000</v>
       </c>
       <c r="C2">
-        <v>30000000</v>
+        <v>29540000</v>
       </c>
       <c r="D2">
-        <v>46000000</v>
+        <v>46175000</v>
       </c>
       <c r="E2">
-        <v>67000000</v>
+        <v>66773000</v>
       </c>
       <c r="F2">
-        <v>88000000</v>
+        <v>88204000</v>
       </c>
       <c r="G2">
         <v>217397000</v>
@@ -745,23 +856,23 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>1635000000</v>
+        <v>1453785000</v>
       </c>
       <c r="C3">
-        <v>1523000000</v>
+        <v>1345904000</v>
       </c>
       <c r="D3">
-        <v>1661000000</v>
+        <v>1468558000</v>
       </c>
       <c r="E3">
-        <v>1437000000</v>
+        <v>1226069000</v>
       </c>
       <c r="F3">
-        <v>1465000000</v>
+        <v>1288758000</v>
       </c>
       <c r="G3">
         <v>1224092000</v>
@@ -867,23 +978,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>322000000</v>
+        <v>322216000</v>
       </c>
       <c r="C4">
-        <v>262000000</v>
+        <v>262421000</v>
       </c>
       <c r="D4">
-        <v>287000000</v>
+        <v>287042000</v>
       </c>
       <c r="E4">
-        <v>268000000</v>
+        <v>267547000</v>
       </c>
       <c r="F4">
-        <v>217000000</v>
+        <v>217286000</v>
       </c>
       <c r="G4">
         <v>187692000</v>
@@ -989,23 +1100,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>1477000000</v>
+        <v>1324822000</v>
       </c>
       <c r="C5">
-        <v>1453000000</v>
+        <v>1340883000</v>
       </c>
       <c r="D5">
-        <v>1479000000</v>
+        <v>1321001000</v>
       </c>
       <c r="E5">
-        <v>1499000000</v>
+        <v>1339972000</v>
       </c>
       <c r="F5">
-        <v>1303000000</v>
+        <v>1301436000</v>
       </c>
       <c r="G5">
         <v>1375207000</v>
@@ -1111,23 +1222,23 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>3920000000</v>
+        <v>3919654000</v>
       </c>
       <c r="C6">
-        <v>3268000000</v>
+        <v>3268043000</v>
       </c>
       <c r="D6">
-        <v>3474000000</v>
+        <v>3473683000</v>
       </c>
       <c r="E6">
-        <v>3270000000</v>
+        <v>3270120000</v>
       </c>
       <c r="F6">
-        <v>3074000000</v>
+        <v>3073553000</v>
       </c>
       <c r="G6">
         <v>3268839000</v>
@@ -1233,23 +1344,23 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
-        <v>35029000000</v>
+        <v>35029500000</v>
       </c>
       <c r="C7">
-        <v>34407000000</v>
+        <v>34407210000</v>
       </c>
       <c r="D7">
-        <v>33853000000</v>
+        <v>33852600000</v>
       </c>
       <c r="E7">
-        <v>33425000000</v>
+        <v>33377650000</v>
       </c>
       <c r="F7">
-        <v>32467000000</v>
+        <v>32467070000</v>
       </c>
       <c r="G7">
         <v>31878600000</v>
@@ -1355,23 +1466,23 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
-        <v>2450000000</v>
+        <v>2053404000</v>
       </c>
       <c r="C8">
-        <v>2211000000</v>
+        <v>1719878000</v>
       </c>
       <c r="D8">
-        <v>2042000000</v>
+        <v>1545433000</v>
       </c>
       <c r="E8">
-        <v>1941000000</v>
+        <v>1436293000</v>
       </c>
       <c r="F8">
-        <v>1868000000</v>
+        <v>1356313000</v>
       </c>
       <c r="G8">
         <v>1205303000</v>
@@ -1414,23 +1525,23 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>4478000000</v>
+        <v>4477756000</v>
       </c>
       <c r="C9">
-        <v>4478000000</v>
+        <v>4477756000</v>
       </c>
       <c r="D9">
-        <v>4477000000</v>
+        <v>4477118000</v>
       </c>
       <c r="E9">
-        <v>4477000000</v>
+        <v>4477269000</v>
       </c>
       <c r="F9">
-        <v>4454000000</v>
+        <v>4453618000</v>
       </c>
       <c r="G9">
         <v>4453618000</v>
@@ -1536,23 +1647,23 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>5723000000</v>
+        <v>999326000</v>
       </c>
       <c r="C10">
-        <v>5552000000</v>
+        <v>1027337000</v>
       </c>
       <c r="D10">
-        <v>5444000000</v>
+        <v>1367013000</v>
       </c>
       <c r="E10">
-        <v>5379000000</v>
+        <v>1072116000</v>
       </c>
       <c r="F10">
-        <v>6152000000</v>
+        <v>1204574000</v>
       </c>
       <c r="G10">
         <v>1181948000</v>
@@ -1658,8 +1769,8 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
         <v>47679770000</v>
@@ -1780,23 +1891,23 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>51599000000</v>
+        <v>51599430000</v>
       </c>
       <c r="C12">
-        <v>49916000000</v>
+        <v>49916240000</v>
       </c>
       <c r="D12">
-        <v>49289000000</v>
+        <v>49289150000</v>
       </c>
       <c r="E12">
-        <v>48492000000</v>
+        <v>48492140000</v>
       </c>
       <c r="F12">
-        <v>48014000000</v>
+        <v>48014050000</v>
       </c>
       <c r="G12">
         <v>47234640000</v>
@@ -1902,8 +2013,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>401500000</v>
@@ -1991,23 +2102,23 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
-        <v>1460000000</v>
+        <v>1459606000</v>
       </c>
       <c r="C14">
-        <v>1354000000</v>
+        <v>1353506000</v>
       </c>
       <c r="D14">
-        <v>1494000000</v>
+        <v>1494360000</v>
       </c>
       <c r="E14">
-        <v>1672000000</v>
+        <v>1672230000</v>
       </c>
       <c r="F14">
-        <v>1289000000</v>
+        <v>1289225000</v>
       </c>
       <c r="G14">
         <v>1061111000</v>
@@ -2113,23 +2224,23 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
-        <v>2055000000</v>
+        <v>1610468000</v>
       </c>
       <c r="C15">
-        <v>1407000000</v>
+        <v>1265463000</v>
       </c>
       <c r="D15">
-        <v>2529000000</v>
+        <v>817114000</v>
       </c>
       <c r="E15">
-        <v>2756000000</v>
+        <v>1193097000</v>
       </c>
       <c r="F15">
-        <v>1553000000</v>
+        <v>798880000</v>
       </c>
       <c r="G15">
         <v>799858000</v>
@@ -2235,16 +2346,16 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="AG16">
         <v>160288000</v>
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="AD17">
         <v>169272000</v>
@@ -2257,23 +2368,23 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
-        <v>1972000000</v>
+        <v>2015587000</v>
       </c>
       <c r="C18">
-        <v>1500000000</v>
+        <v>1542776000</v>
       </c>
       <c r="D18">
-        <v>1578000000</v>
+        <v>1621035000</v>
       </c>
       <c r="E18">
-        <v>1419000000</v>
+        <v>1476262000</v>
       </c>
       <c r="F18">
-        <v>1416000000</v>
+        <v>1458972000</v>
       </c>
       <c r="G18">
         <v>1241101000</v>
@@ -2379,23 +2490,23 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>5487000000</v>
+        <v>5487161000</v>
       </c>
       <c r="C19">
-        <v>4261000000</v>
+        <v>4260545000</v>
       </c>
       <c r="D19">
-        <v>5601000000</v>
+        <v>5601309000</v>
       </c>
       <c r="E19">
-        <v>5847000000</v>
+        <v>5847039000</v>
       </c>
       <c r="F19">
-        <v>4258000000</v>
+        <v>4258077000</v>
       </c>
       <c r="G19">
         <v>5104570000</v>
@@ -2501,23 +2612,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>20242000000</v>
+        <v>19831970000</v>
       </c>
       <c r="C20">
-        <v>20016000000</v>
+        <v>19583770000</v>
       </c>
       <c r="D20">
-        <v>18345000000</v>
+        <v>17912460000</v>
       </c>
       <c r="E20">
-        <v>17570000000</v>
+        <v>17023580000</v>
       </c>
       <c r="F20">
-        <v>17874000000</v>
+        <v>17420300000</v>
       </c>
       <c r="G20">
         <v>15851360000</v>
@@ -2623,8 +2734,8 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
         <v>159217000</v>
@@ -2745,23 +2856,23 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>4830000000</v>
+        <v>4830158000</v>
       </c>
       <c r="C22">
-        <v>4770000000</v>
+        <v>4770063000</v>
       </c>
       <c r="D22">
-        <v>4683000000</v>
+        <v>4683105000</v>
       </c>
       <c r="E22">
-        <v>4597000000</v>
+        <v>4597120000</v>
       </c>
       <c r="F22">
-        <v>4341000000</v>
+        <v>4341105000</v>
       </c>
       <c r="G22">
         <v>4258986000</v>
@@ -2867,8 +2978,8 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
         <v>155570000</v>
@@ -2965,8 +3076,8 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="J24">
         <v>155570000</v>
@@ -2985,23 +3096,23 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
-        <v>5605000000</v>
+        <v>5856179000</v>
       </c>
       <c r="C25">
-        <v>5657000000</v>
+        <v>5894531000</v>
       </c>
       <c r="D25">
-        <v>5668000000</v>
+        <v>5899402000</v>
       </c>
       <c r="E25">
-        <v>5723000000</v>
+        <v>6026531000</v>
       </c>
       <c r="F25">
-        <v>6974000000</v>
+        <v>6097355000</v>
       </c>
       <c r="G25">
         <v>6096784000</v>
@@ -3107,8 +3218,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
         <v>30833090000</v>
@@ -3229,23 +3340,23 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
-        <v>36165000000</v>
+        <v>36320250000</v>
       </c>
       <c r="C27">
-        <v>34703000000</v>
+        <v>34859020000</v>
       </c>
       <c r="D27">
-        <v>34297000000</v>
+        <v>34452460000</v>
       </c>
       <c r="E27">
-        <v>33737000000</v>
+        <v>33892300000</v>
       </c>
       <c r="F27">
-        <v>33447000000</v>
+        <v>33602440000</v>
       </c>
       <c r="G27">
         <v>32922750000</v>
@@ -3351,8 +3462,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
         <v>8327477000</v>
@@ -3473,8 +3584,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="AE29">
         <v>155568000</v>
@@ -3496,23 +3607,23 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
-        <v>1800000000</v>
+        <v>1799920000</v>
       </c>
       <c r="C30">
-        <v>1796000000</v>
+        <v>1796056000</v>
       </c>
       <c r="D30">
-        <v>1789000000</v>
+        <v>1789092000</v>
       </c>
       <c r="E30">
-        <v>1789000000</v>
+        <v>1789092000</v>
       </c>
       <c r="F30">
-        <v>1789000000</v>
+        <v>1789092000</v>
       </c>
       <c r="G30">
         <v>1789092000</v>
@@ -3618,23 +3729,23 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
-        <v>5429000000</v>
+        <v>5429076000</v>
       </c>
       <c r="C31">
-        <v>5301000000</v>
+        <v>5301054000</v>
       </c>
       <c r="D31">
-        <v>5229000000</v>
+        <v>5229069000</v>
       </c>
       <c r="E31">
-        <v>5005000000</v>
+        <v>5005391000</v>
       </c>
       <c r="F31">
-        <v>4906000000</v>
+        <v>4906151000</v>
       </c>
       <c r="G31">
         <v>4830058000</v>
@@ -3740,8 +3851,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>236294000</v>
@@ -3862,23 +3973,23 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
-        <v>15279000000</v>
+        <v>15279170000</v>
       </c>
       <c r="C33">
-        <v>15057000000</v>
+        <v>15057210000</v>
       </c>
       <c r="D33">
-        <v>14837000000</v>
+        <v>14836690000</v>
       </c>
       <c r="E33">
-        <v>14600000000</v>
+        <v>14599840000</v>
       </c>
       <c r="F33">
-        <v>14412000000</v>
+        <v>14411610000</v>
       </c>
       <c r="G33">
         <v>14311890000</v>
@@ -3984,23 +4095,23 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
-        <v>15279000000</v>
+        <v>15279170000</v>
       </c>
       <c r="C34">
-        <v>15057000000</v>
+        <v>15057210000</v>
       </c>
       <c r="D34">
-        <v>14837000000</v>
+        <v>14836690000</v>
       </c>
       <c r="E34">
-        <v>14600000000</v>
+        <v>14599840000</v>
       </c>
       <c r="F34">
-        <v>14412000000</v>
+        <v>14411610000</v>
       </c>
       <c r="G34">
         <v>14311890000</v>
@@ -4106,8 +4217,8 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
         <v>51599430000</v>
@@ -4228,8 +4339,8 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
         <v>347349000</v>
@@ -4350,8 +4461,8 @@
       </c>
     </row>
     <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B37">
         <v>10801420000</v>
@@ -4472,8 +4583,8 @@
       </c>
     </row>
     <row r="38" spans="1:40">
-      <c r="A38" t="s">
-        <v>37</v>
+      <c r="A38" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="E38">
         <v>20259000000</v>
@@ -4585,8 +4696,8 @@
       </c>
     </row>
     <row r="39" spans="1:40">
-      <c r="A39" t="s">
-        <v>38</v>
+      <c r="A39" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="E39">
         <v>20326000000</v>
